--- a/tableros/verbos2.xlsx
+++ b/tableros/verbos2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive - Universidade da Coruña\UDC4\TFG\ComunicELA-tfg\tableros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F994F6-7AB9-458D-8445-533EA6AE8E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74287844-070A-4E5A-9FC7-13258CB60632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>PENSAR</t>
   </si>
   <si>
-    <t>LLORAR</t>
-  </si>
-  <si>
     <t>CELEBRAR</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>CERRAR</t>
+  </si>
+  <si>
+    <t>IR</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,38 +426,38 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
